--- a/CETC/ExcelFile/testingEquipment.xlsx
+++ b/CETC/ExcelFile/testingEquipment.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -436,7 +436,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
